--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H2">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I2">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J2">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.082080666666666</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N2">
-        <v>9.246241999999999</v>
+        <v>0.146159</v>
       </c>
       <c r="O2">
-        <v>0.822428495022819</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P2">
-        <v>0.8679967027127143</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q2">
-        <v>13.85499742201267</v>
+        <v>1.23559424057225</v>
       </c>
       <c r="R2">
-        <v>83.12998453207599</v>
+        <v>4.942376962289001</v>
       </c>
       <c r="S2">
-        <v>0.1047861393986844</v>
+        <v>0.004008259420023067</v>
       </c>
       <c r="T2">
-        <v>0.08427448165963503</v>
+        <v>0.002190440669183898</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H3">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I3">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J3">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01806466666666667</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N3">
-        <v>0.05419400000000001</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O3">
-        <v>0.004820411347579554</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P3">
-        <v>0.005087495363717806</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q3">
-        <v>0.08120680058866669</v>
+        <v>52.11038828553033</v>
       </c>
       <c r="R3">
-        <v>0.4872408035320001</v>
+        <v>312.662329713182</v>
       </c>
       <c r="S3">
-        <v>0.0006141716860290166</v>
+        <v>0.169045749703236</v>
       </c>
       <c r="T3">
-        <v>0.0004939489209845753</v>
+        <v>0.1385706286572586</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H4">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I4">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J4">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.590216</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N4">
-        <v>1.180432</v>
+        <v>0.021442</v>
       </c>
       <c r="O4">
-        <v>0.1574944036566601</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P4">
-        <v>0.1108137861605369</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q4">
-        <v>2.653221003224</v>
+        <v>0.1208437920636667</v>
       </c>
       <c r="R4">
-        <v>10.612884012896</v>
+        <v>0.725062752382</v>
       </c>
       <c r="S4">
-        <v>0.02006646247783714</v>
+        <v>0.0003920164500493051</v>
       </c>
       <c r="T4">
-        <v>0.01075899754023811</v>
+        <v>0.0003213447603544164</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H5">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I5">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J5">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.057175</v>
+        <v>0.6418275</v>
       </c>
       <c r="N5">
-        <v>0.171525</v>
+        <v>1.283655</v>
       </c>
       <c r="O5">
-        <v>0.01525668997294134</v>
+        <v>0.1681281564700153</v>
       </c>
       <c r="P5">
-        <v>0.0161020157630309</v>
+        <v>0.1195480873591231</v>
       </c>
       <c r="Q5">
-        <v>0.257021007325</v>
+        <v>10.85172124112625</v>
       </c>
       <c r="R5">
-        <v>1.54212604395</v>
+        <v>43.406884964505</v>
       </c>
       <c r="S5">
-        <v>0.001943864605788963</v>
+        <v>0.0352029108423683</v>
       </c>
       <c r="T5">
-        <v>0.001563357358229311</v>
+        <v>0.01923774873392167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4630963333333333</v>
+        <v>16.9075355</v>
       </c>
       <c r="H6">
-        <v>1.389289</v>
+        <v>33.815071</v>
       </c>
       <c r="I6">
-        <v>0.01312546158663854</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J6">
-        <v>0.01500300202804008</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.082080666666666</v>
+        <v>0.01335466666666667</v>
       </c>
       <c r="N6">
-        <v>9.246241999999999</v>
+        <v>0.040064</v>
       </c>
       <c r="O6">
-        <v>0.822428495022819</v>
+        <v>0.003498284954973465</v>
       </c>
       <c r="P6">
-        <v>0.8679967027127143</v>
+        <v>0.003731200807036086</v>
       </c>
       <c r="Q6">
-        <v>1.427300255770889</v>
+        <v>0.2257945007573334</v>
       </c>
       <c r="R6">
-        <v>12.845702301938</v>
+        <v>1.354767004544</v>
       </c>
       <c r="S6">
-        <v>0.01079475361917896</v>
+        <v>0.0007324758443603845</v>
       </c>
       <c r="T6">
-        <v>0.01302255629113096</v>
+        <v>0.0006004270347374003</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>1.389289</v>
       </c>
       <c r="I7">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J7">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01806466666666667</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N7">
-        <v>0.05419400000000001</v>
+        <v>0.146159</v>
       </c>
       <c r="O7">
-        <v>0.004820411347579554</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P7">
-        <v>0.005087495363717806</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q7">
-        <v>0.008365680896222224</v>
+        <v>0.03384284849183333</v>
       </c>
       <c r="R7">
-        <v>0.07529112806600001</v>
+        <v>0.203057090951</v>
       </c>
       <c r="S7">
-        <v>6.327012397445194E-05</v>
+        <v>0.0001097859732698166</v>
       </c>
       <c r="T7">
-        <v>7.632770325950275E-05</v>
+        <v>8.999404812279792E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>1.389289</v>
       </c>
       <c r="I8">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J8">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.590216</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N8">
-        <v>1.180432</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O8">
-        <v>0.1574944036566601</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P8">
-        <v>0.1108137861605369</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q8">
-        <v>0.2733268654746667</v>
+        <v>1.427300255770889</v>
       </c>
       <c r="R8">
-        <v>1.639961192848</v>
+        <v>12.845702301938</v>
       </c>
       <c r="S8">
-        <v>0.002067186745306037</v>
+        <v>0.004630152446118065</v>
       </c>
       <c r="T8">
-        <v>0.001662539458501335</v>
+        <v>0.005693161197757477</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>1.389289</v>
       </c>
       <c r="I9">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J9">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.057175</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N9">
-        <v>0.171525</v>
+        <v>0.021442</v>
       </c>
       <c r="O9">
-        <v>0.01525668997294134</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P9">
-        <v>0.0161020157630309</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q9">
-        <v>0.02647753285833333</v>
+        <v>0.003309903859777778</v>
       </c>
       <c r="R9">
-        <v>0.238297795725</v>
+        <v>0.029789134738</v>
       </c>
       <c r="S9">
-        <v>0.0002002510981790948</v>
+        <v>1.073730589678094E-05</v>
       </c>
       <c r="T9">
-        <v>0.0002415785751482859</v>
+        <v>1.320241914523931E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.798299666666668</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H10">
-        <v>20.394899</v>
+        <v>1.389289</v>
       </c>
       <c r="I10">
-        <v>0.1926830655017586</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J10">
-        <v>0.2202455436260365</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.082080666666666</v>
+        <v>0.6418275</v>
       </c>
       <c r="N10">
-        <v>9.246241999999999</v>
+        <v>1.283655</v>
       </c>
       <c r="O10">
-        <v>0.822428495022819</v>
+        <v>0.1681281564700153</v>
       </c>
       <c r="P10">
-        <v>0.8679967027127143</v>
+        <v>0.1195480873591231</v>
       </c>
       <c r="Q10">
-        <v>20.95290796883978</v>
+        <v>0.2972279618825</v>
       </c>
       <c r="R10">
-        <v>188.576171719558</v>
+        <v>1.783367771295</v>
       </c>
       <c r="S10">
-        <v>0.1584680435769946</v>
+        <v>0.0009642055126106939</v>
       </c>
       <c r="T10">
-        <v>0.191172405654569</v>
+        <v>0.0007903810907509641</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.798299666666668</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H11">
-        <v>20.394899</v>
+        <v>1.389289</v>
       </c>
       <c r="I11">
-        <v>0.1926830655017586</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J11">
-        <v>0.2202455436260365</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.01806466666666667</v>
+        <v>0.01335466666666667</v>
       </c>
       <c r="N11">
-        <v>0.05419400000000001</v>
+        <v>0.040064</v>
       </c>
       <c r="O11">
-        <v>0.004820411347579554</v>
+        <v>0.003498284954973465</v>
       </c>
       <c r="P11">
-        <v>0.005087495363717806</v>
+        <v>0.003731200807036086</v>
       </c>
       <c r="Q11">
-        <v>0.1228090173784445</v>
+        <v>0.006184497166222222</v>
       </c>
       <c r="R11">
-        <v>1.105281156406</v>
+        <v>0.05566047449600001</v>
       </c>
       <c r="S11">
-        <v>0.0009288116354310918</v>
+        <v>2.006246728143977E-05</v>
       </c>
       <c r="T11">
-        <v>0.001120498182076968</v>
+        <v>2.46684880437864E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H12">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I12">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J12">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.590216</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N12">
-        <v>1.180432</v>
+        <v>0.146159</v>
       </c>
       <c r="O12">
-        <v>0.1574944036566601</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P12">
-        <v>0.1108137861605369</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q12">
-        <v>4.012465236061334</v>
+        <v>0.5456142265816668</v>
       </c>
       <c r="R12">
-        <v>24.074791416368</v>
+        <v>3.273685359490001</v>
       </c>
       <c r="S12">
-        <v>0.03034650449593666</v>
+        <v>0.001769968887506064</v>
       </c>
       <c r="T12">
-        <v>0.0244062425741868</v>
+        <v>0.001450883573683893</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H13">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I13">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J13">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.057175</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N13">
-        <v>0.171525</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O13">
-        <v>0.01525668997294134</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P13">
-        <v>0.0161020157630309</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q13">
-        <v>0.3886927834416667</v>
+        <v>23.01092726695778</v>
       </c>
       <c r="R13">
-        <v>3.498235050975</v>
+        <v>207.09834540262</v>
       </c>
       <c r="S13">
-        <v>0.00293970579339628</v>
+        <v>0.07464729354721841</v>
       </c>
       <c r="T13">
-        <v>0.003546397215203749</v>
+        <v>0.09178511508772022</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,122 +1278,122 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.750795</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H14">
-        <v>17.50159</v>
+        <v>22.39811</v>
       </c>
       <c r="I14">
-        <v>0.2480223127622444</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J14">
-        <v>0.1890005537105138</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>3.082080666666666</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N14">
-        <v>9.246241999999999</v>
+        <v>0.021442</v>
       </c>
       <c r="O14">
-        <v>0.822428495022819</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P14">
-        <v>0.8679967027127143</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q14">
-        <v>26.97065608746333</v>
+        <v>0.05336225273555556</v>
       </c>
       <c r="R14">
-        <v>161.82393652478</v>
+        <v>0.48026027462</v>
       </c>
       <c r="S14">
-        <v>0.2039806174171316</v>
+        <v>0.0001731067895734783</v>
       </c>
       <c r="T14">
-        <v>0.1640518574316032</v>
+        <v>0.0002128493324867441</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.750795</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H15">
-        <v>17.50159</v>
+        <v>22.39811</v>
       </c>
       <c r="I15">
-        <v>0.2480223127622444</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J15">
-        <v>0.1890005537105138</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.01806466666666667</v>
+        <v>0.6418275</v>
       </c>
       <c r="N15">
-        <v>0.05419400000000001</v>
+        <v>1.283655</v>
       </c>
       <c r="O15">
-        <v>0.004820411347579554</v>
+        <v>0.1681281564700153</v>
       </c>
       <c r="P15">
-        <v>0.005087495363717806</v>
+        <v>0.1195480873591231</v>
       </c>
       <c r="Q15">
-        <v>0.1580801947433334</v>
+        <v>4.791907648675001</v>
       </c>
       <c r="R15">
-        <v>0.9484811684600001</v>
+        <v>28.75144589205</v>
       </c>
       <c r="S15">
-        <v>0.001195569570892048</v>
+        <v>0.01554491623705414</v>
       </c>
       <c r="T15">
-        <v>0.000961539440742337</v>
+        <v>0.01274251981593468</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.750795</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H16">
-        <v>17.50159</v>
+        <v>22.39811</v>
       </c>
       <c r="I16">
-        <v>0.2480223127622444</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J16">
-        <v>0.1890005537105138</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.590216</v>
+        <v>0.01335466666666667</v>
       </c>
       <c r="N16">
-        <v>1.180432</v>
+        <v>0.040064</v>
       </c>
       <c r="O16">
-        <v>0.1574944036566601</v>
+        <v>0.003498284954973465</v>
       </c>
       <c r="P16">
-        <v>0.1108137861605369</v>
+        <v>0.003731200807036086</v>
       </c>
       <c r="Q16">
-        <v>5.16485922172</v>
+        <v>0.09970643100444446</v>
       </c>
       <c r="R16">
-        <v>20.65943688688</v>
+        <v>0.8973578790400002</v>
       </c>
       <c r="S16">
-        <v>0.03906212624203532</v>
+        <v>0.0003234469926999271</v>
       </c>
       <c r="T16">
-        <v>0.02094386694309994</v>
+        <v>0.0003977052353674524</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H17">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I17">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J17">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K17">
         <v>2</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.057175</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N17">
-        <v>0.171525</v>
+        <v>0.146159</v>
       </c>
       <c r="O17">
-        <v>0.01525668997294134</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P17">
-        <v>0.0161020157630309</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q17">
-        <v>0.500326704125</v>
+        <v>1.11132934721575</v>
       </c>
       <c r="R17">
-        <v>3.00196022475</v>
+        <v>4.445317388863001</v>
       </c>
       <c r="S17">
-        <v>0.003783999532185453</v>
+        <v>0.003605144940350783</v>
       </c>
       <c r="T17">
-        <v>0.00304328989506826</v>
+        <v>0.001970145958167914</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.279227333333332</v>
+        <v>15.2071285</v>
       </c>
       <c r="H18">
-        <v>18.837682</v>
+        <v>30.414257</v>
       </c>
       <c r="I18">
-        <v>0.1779710855497396</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J18">
-        <v>0.2034290786507156</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,27 +1559,27 @@
         <v>9.246241999999999</v>
       </c>
       <c r="O18">
-        <v>0.822428495022819</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P18">
-        <v>0.8679967027127143</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q18">
-        <v>19.35308516567155</v>
+        <v>46.86959674536566</v>
       </c>
       <c r="R18">
-        <v>174.1777664910439</v>
+        <v>281.217580472194</v>
       </c>
       <c r="S18">
-        <v>0.1463684920462497</v>
+        <v>0.1520446571362188</v>
       </c>
       <c r="T18">
-        <v>0.1765757695047066</v>
+        <v>0.1246344481321192</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,57 +1591,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.279227333333332</v>
+        <v>15.2071285</v>
       </c>
       <c r="H19">
-        <v>18.837682</v>
+        <v>30.414257</v>
       </c>
       <c r="I19">
-        <v>0.1779710855497396</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J19">
-        <v>0.2034290786507156</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.01806466666666667</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N19">
-        <v>0.05419400000000001</v>
+        <v>0.021442</v>
       </c>
       <c r="O19">
-        <v>0.004820411347579554</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P19">
-        <v>0.005087495363717806</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q19">
-        <v>0.1134321487008889</v>
+        <v>0.1086904164323333</v>
       </c>
       <c r="R19">
-        <v>1.020889338308</v>
+        <v>0.652142498594</v>
       </c>
       <c r="S19">
-        <v>0.0008578938403250163</v>
+        <v>0.000352590981105059</v>
       </c>
       <c r="T19">
-        <v>0.001034944494480901</v>
+        <v>0.0002890268107679747</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,22 +1653,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.279227333333332</v>
+        <v>15.2071285</v>
       </c>
       <c r="H20">
-        <v>18.837682</v>
+        <v>30.414257</v>
       </c>
       <c r="I20">
-        <v>0.1779710855497396</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J20">
-        <v>0.2034290786507156</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.590216</v>
+        <v>0.6418275</v>
       </c>
       <c r="N20">
-        <v>1.180432</v>
+        <v>1.283655</v>
       </c>
       <c r="O20">
-        <v>0.1574944036566601</v>
+        <v>0.1681281564700153</v>
       </c>
       <c r="P20">
-        <v>0.1108137861605369</v>
+        <v>0.1195480873591231</v>
       </c>
       <c r="Q20">
-        <v>3.706100439770666</v>
+        <v>9.76035326733375</v>
       </c>
       <c r="R20">
-        <v>22.236602638624</v>
+        <v>39.041413069335</v>
       </c>
       <c r="S20">
-        <v>0.02802944998678468</v>
+        <v>0.03166252046337197</v>
       </c>
       <c r="T20">
-        <v>0.02254274642043544</v>
+        <v>0.0173029899625205</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,25 +1712,25 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.279227333333332</v>
+        <v>15.2071285</v>
       </c>
       <c r="H21">
-        <v>18.837682</v>
+        <v>30.414257</v>
       </c>
       <c r="I21">
-        <v>0.1779710855497396</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J21">
-        <v>0.2034290786507156</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,33 +1739,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.057175</v>
+        <v>0.01335466666666667</v>
       </c>
       <c r="N21">
-        <v>0.171525</v>
+        <v>0.040064</v>
       </c>
       <c r="O21">
-        <v>0.01525668997294134</v>
+        <v>0.003498284954973465</v>
       </c>
       <c r="P21">
-        <v>0.0161020157630309</v>
+        <v>0.003731200807036086</v>
       </c>
       <c r="Q21">
-        <v>0.3590148227833332</v>
+        <v>0.2030861320746667</v>
       </c>
       <c r="R21">
-        <v>3.231133405049999</v>
+        <v>1.218516792448</v>
       </c>
       <c r="S21">
-        <v>0.002715249676380197</v>
+        <v>0.0006588100488290777</v>
       </c>
       <c r="T21">
-        <v>0.003275618231092675</v>
+        <v>0.0005400415141595065</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.495532000000001</v>
+        <v>35.389713</v>
       </c>
       <c r="H22">
-        <v>25.486596</v>
+        <v>106.169139</v>
       </c>
       <c r="I22">
-        <v>0.2407874364312792</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J22">
-        <v>0.275231036505607</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.082080666666666</v>
+        <v>0.07307950000000001</v>
       </c>
       <c r="N22">
-        <v>9.246241999999999</v>
+        <v>0.146159</v>
       </c>
       <c r="O22">
-        <v>0.822428495022819</v>
+        <v>0.01914333930962835</v>
       </c>
       <c r="P22">
-        <v>0.8679967027127143</v>
+        <v>0.01361193537229401</v>
       </c>
       <c r="Q22">
-        <v>26.183914930248</v>
+        <v>2.5862625311835</v>
       </c>
       <c r="R22">
-        <v>235.655234372232</v>
+        <v>15.517575187101</v>
       </c>
       <c r="S22">
-        <v>0.1980304489645796</v>
+        <v>0.008389818285708332</v>
       </c>
       <c r="T22">
-        <v>0.2388996321710696</v>
+        <v>0.006877324015609439</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.495532000000001</v>
+        <v>35.389713</v>
       </c>
       <c r="H23">
-        <v>25.486596</v>
+        <v>106.169139</v>
       </c>
       <c r="I23">
-        <v>0.2407874364312792</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J23">
-        <v>0.275231036505607</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.01806466666666667</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N23">
-        <v>0.05419400000000001</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O23">
-        <v>0.004820411347579554</v>
+        <v>0.8073579592313238</v>
       </c>
       <c r="P23">
-        <v>0.005087495363717806</v>
+        <v>0.8611118613331405</v>
       </c>
       <c r="Q23">
-        <v>0.153468953736</v>
+        <v>109.073950236182</v>
       </c>
       <c r="R23">
-        <v>1.381220583624</v>
+        <v>981.6655521256379</v>
       </c>
       <c r="S23">
-        <v>0.001160694490927929</v>
+        <v>0.3538351621895076</v>
       </c>
       <c r="T23">
-        <v>0.001400236622173522</v>
+        <v>0.4350700412614798</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,108 +1907,480 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.495532000000001</v>
+        <v>35.389713</v>
       </c>
       <c r="H24">
-        <v>25.486596</v>
+        <v>106.169139</v>
       </c>
       <c r="I24">
-        <v>0.2407874364312792</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J24">
-        <v>0.275231036505607</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.590216</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N24">
-        <v>1.180432</v>
+        <v>0.021442</v>
       </c>
       <c r="O24">
-        <v>0.1574944036566601</v>
+        <v>0.001872260034059031</v>
       </c>
       <c r="P24">
-        <v>0.1108137861605369</v>
+        <v>0.001996915128406244</v>
       </c>
       <c r="Q24">
-        <v>5.014198914912</v>
+        <v>0.252942075382</v>
       </c>
       <c r="R24">
-        <v>30.085193489472</v>
+        <v>2.276478678438</v>
       </c>
       <c r="S24">
-        <v>0.03792267370876028</v>
+        <v>0.0008205423941605057</v>
       </c>
       <c r="T24">
-        <v>0.03049939322407525</v>
+        <v>0.001008925769488691</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>35.389713</v>
+      </c>
+      <c r="H25">
+        <v>106.169139</v>
+      </c>
+      <c r="I25">
+        <v>0.4382630506626701</v>
+      </c>
+      <c r="J25">
+        <v>0.5052421883817986</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.6418275</v>
+      </c>
+      <c r="N25">
+        <v>1.283655</v>
+      </c>
+      <c r="O25">
+        <v>0.1681281564700153</v>
+      </c>
+      <c r="P25">
+        <v>0.1195480873591231</v>
+      </c>
+      <c r="Q25">
+        <v>22.7140910205075</v>
+      </c>
+      <c r="R25">
+        <v>136.284546123045</v>
+      </c>
+      <c r="S25">
+        <v>0.07368435875683967</v>
+      </c>
+      <c r="T25">
+        <v>0.06040073727418176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>8.495532000000001</v>
-      </c>
-      <c r="H25">
-        <v>25.486596</v>
-      </c>
-      <c r="I25">
-        <v>0.2407874364312792</v>
-      </c>
-      <c r="J25">
-        <v>0.275231036505607</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>35.389713</v>
+      </c>
+      <c r="H26">
+        <v>106.169139</v>
+      </c>
+      <c r="I26">
+        <v>0.4382630506626701</v>
+      </c>
+      <c r="J26">
+        <v>0.5052421883817986</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M25">
-        <v>0.057175</v>
-      </c>
-      <c r="N25">
-        <v>0.171525</v>
-      </c>
-      <c r="O25">
-        <v>0.01525668997294134</v>
-      </c>
-      <c r="P25">
-        <v>0.0161020157630309</v>
-      </c>
-      <c r="Q25">
-        <v>0.4857320421</v>
-      </c>
-      <c r="R25">
-        <v>4.3715883789</v>
-      </c>
-      <c r="S25">
-        <v>0.003673619267011346</v>
-      </c>
-      <c r="T25">
-        <v>0.004431774488288616</v>
+      <c r="M26">
+        <v>0.01335466666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.040064</v>
+      </c>
+      <c r="O26">
+        <v>0.003498284954973465</v>
+      </c>
+      <c r="P26">
+        <v>0.003731200807036086</v>
+      </c>
+      <c r="Q26">
+        <v>0.472617820544</v>
+      </c>
+      <c r="R26">
+        <v>4.253560384896001</v>
+      </c>
+      <c r="S26">
+        <v>0.001533169036453992</v>
+      </c>
+      <c r="T26">
+        <v>0.001885160061038845</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5.316425333333333</v>
+      </c>
+      <c r="H27">
+        <v>15.949276</v>
+      </c>
+      <c r="I27">
+        <v>0.06583813734818843</v>
+      </c>
+      <c r="J27">
+        <v>0.07590008909599709</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.07307950000000001</v>
+      </c>
+      <c r="N27">
+        <v>0.146159</v>
+      </c>
+      <c r="O27">
+        <v>0.01914333930962835</v>
+      </c>
+      <c r="P27">
+        <v>0.01361193537229401</v>
+      </c>
+      <c r="Q27">
+        <v>0.3885217051473334</v>
+      </c>
+      <c r="R27">
+        <v>2.331130230884</v>
+      </c>
+      <c r="S27">
+        <v>0.001260361802770286</v>
+      </c>
+      <c r="T27">
+        <v>0.00103314710752607</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5.316425333333333</v>
+      </c>
+      <c r="H28">
+        <v>15.949276</v>
+      </c>
+      <c r="I28">
+        <v>0.06583813734818843</v>
+      </c>
+      <c r="J28">
+        <v>0.07590008909599709</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3.082080666666666</v>
+      </c>
+      <c r="N28">
+        <v>9.246241999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.8073579592313238</v>
+      </c>
+      <c r="P28">
+        <v>0.8611118613331405</v>
+      </c>
+      <c r="Q28">
+        <v>16.38565173564355</v>
+      </c>
+      <c r="R28">
+        <v>147.470865620792</v>
+      </c>
+      <c r="S28">
+        <v>0.05315494420902501</v>
+      </c>
+      <c r="T28">
+        <v>0.06535846699680525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5.316425333333333</v>
+      </c>
+      <c r="H29">
+        <v>15.949276</v>
+      </c>
+      <c r="I29">
+        <v>0.06583813734818843</v>
+      </c>
+      <c r="J29">
+        <v>0.07590008909599709</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.021442</v>
+      </c>
+      <c r="O29">
+        <v>0.001872260034059031</v>
+      </c>
+      <c r="P29">
+        <v>0.001996915128406244</v>
+      </c>
+      <c r="Q29">
+        <v>0.0379982639991111</v>
+      </c>
+      <c r="R29">
+        <v>0.341984375992</v>
+      </c>
+      <c r="S29">
+        <v>0.0001232661132739025</v>
+      </c>
+      <c r="T29">
+        <v>0.0001515660361631784</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5.316425333333333</v>
+      </c>
+      <c r="H30">
+        <v>15.949276</v>
+      </c>
+      <c r="I30">
+        <v>0.06583813734818843</v>
+      </c>
+      <c r="J30">
+        <v>0.07590008909599709</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.6418275</v>
+      </c>
+      <c r="N30">
+        <v>1.283655</v>
+      </c>
+      <c r="O30">
+        <v>0.1681281564700153</v>
+      </c>
+      <c r="P30">
+        <v>0.1195480873591231</v>
+      </c>
+      <c r="Q30">
+        <v>3.41222798063</v>
+      </c>
+      <c r="R30">
+        <v>20.47336788378</v>
+      </c>
+      <c r="S30">
+        <v>0.01106924465777058</v>
+      </c>
+      <c r="T30">
+        <v>0.009073710481813484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5.316425333333333</v>
+      </c>
+      <c r="H31">
+        <v>15.949276</v>
+      </c>
+      <c r="I31">
+        <v>0.06583813734818843</v>
+      </c>
+      <c r="J31">
+        <v>0.07590008909599709</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.01335466666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.040064</v>
+      </c>
+      <c r="O31">
+        <v>0.003498284954973465</v>
+      </c>
+      <c r="P31">
+        <v>0.003731200807036086</v>
+      </c>
+      <c r="Q31">
+        <v>0.07099908818488888</v>
+      </c>
+      <c r="R31">
+        <v>0.6389917936640001</v>
+      </c>
+      <c r="S31">
+        <v>0.0002303205653486442</v>
+      </c>
+      <c r="T31">
+        <v>0.0002831984736890951</v>
       </c>
     </row>
   </sheetData>
